--- a/JOBCON/DOGELIO, JEAN MELODY MARANAN.xlsx
+++ b/JOBCON/DOGELIO, JEAN MELODY MARANAN.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\JOBCON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\JOBCON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C5F037-47E7-441B-A6CA-EB390E44FE4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB39746-B3E9-4242-BF28-E08C9436036D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>PERIOD</t>
   </si>
@@ -425,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -436,9 +436,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -493,7 +490,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -505,10 +502,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -517,13 +514,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -566,6 +560,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -599,10 +597,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1213,18 +1210,18 @@
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="33" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
     <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
@@ -1232,99 +1229,90 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="49" t="s">
         <v>42</v>
       </c>
       <c r="C2" s="49"/>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="10"/>
       <c r="F2" s="54" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="54"/>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="26"/>
+      <c r="I2" s="25"/>
       <c r="J2" s="50"/>
       <c r="K2" s="51"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="49"/>
       <c r="C3" s="49"/>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4"/>
       <c r="F3" s="55"/>
       <c r="G3" s="50"/>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="27"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="52"/>
       <c r="K3" s="53"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="49" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="49"/>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="4"/>
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="27"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="50"/>
       <c r="K4" s="51"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="28" t="s">
+      <c r="A5" s="16"/>
+      <c r="H5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="5"/>
+      <c r="I5" s="27"/>
+      <c r="K5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="20"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="15"/>
-      <c r="B7" s="15"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="48" t="s">
         <v>8</v>
       </c>
@@ -1337,13 +1325,13 @@
       <c r="H7" s="48"/>
       <c r="I7" s="48"/>
       <c r="J7" s="48"/>
-      <c r="K7" s="15"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
@@ -1370,1989 +1358,1997 @@
       <c r="J8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="6" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="24"/>
-      <c r="B9" s="25" t="s">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="14">
+      <c r="C9" s="13"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
         <v>0</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="14">
+      <c r="F9" s="11"/>
+      <c r="G9" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
         <v>0</v>
       </c>
-      <c r="J9" s="12"/>
-      <c r="K9" s="21"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="40">
+      <c r="A10" s="38">
         <v>44743</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="36" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H10" s="39"/>
-      <c r="I10" s="36" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H10" s="37"/>
+      <c r="I10" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="J10" s="12">
+      <c r="J10" s="11">
         <v>5</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K10" s="20" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="40">
+      <c r="A11" s="38">
         <v>44817</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="21">
+      <c r="C11" s="13"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="20">
         <v>4</v>
       </c>
-      <c r="G11" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H11" s="39"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="21" t="s">
+      <c r="G11" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H11" s="37"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="20" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="40"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H12" s="39"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="21"/>
+      <c r="A12" s="38">
+        <v>44893</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H12" s="37"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="11">
+        <v>5</v>
+      </c>
+      <c r="K12" s="59">
+        <v>45982</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="40"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H13" s="39"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="21"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H13" s="37"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="40"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H14" s="39"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="21"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H14" s="37"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="40"/>
-      <c r="B15" s="21"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="21"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H15" s="37"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="16"/>
+      <c r="A16" s="39"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H16" s="41"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="15"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="40"/>
-      <c r="B17" s="21"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H17" s="39"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="21"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H17" s="37"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="39"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H18" s="39"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="21"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H18" s="37"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="40"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H19" s="39"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="21"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H19" s="37"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="40"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H20" s="39"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="21"/>
+      <c r="A20" s="38"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="37"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H20" s="37"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="20"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A21" s="40"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H21" s="39"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="21"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H21" s="37"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A22" s="40"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H22" s="39"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="21"/>
+      <c r="A22" s="38"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H22" s="37"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="20"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="40"/>
-      <c r="B23" s="21"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H23" s="39"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="21"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H23" s="37"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A24" s="40"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="39"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H24" s="39"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="21"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H24" s="37"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="40"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="21"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H25" s="37"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A26" s="40"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="21"/>
-      <c r="G26" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="21"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="37"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H26" s="37"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="40"/>
-      <c r="B27" s="21"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H27" s="39"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="12"/>
-      <c r="K27" s="21"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H27" s="37"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="20"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A28" s="40"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H28" s="39"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="12"/>
-      <c r="K28" s="21"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="37"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H28" s="37"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="20"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="40"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="12"/>
-      <c r="K29" s="21"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="37"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H29" s="37"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="20"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A30" s="40"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H30" s="39"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="12"/>
-      <c r="K30" s="21"/>
+      <c r="A30" s="38"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="37"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H30" s="37"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="20"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A31" s="40"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="39"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="21"/>
-      <c r="G31" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H31" s="39"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="12"/>
-      <c r="K31" s="21"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="37"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H31" s="37"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="40"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H32" s="39"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="12"/>
-      <c r="K32" s="21"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H32" s="37"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="20"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="40"/>
-      <c r="B33" s="21"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="21"/>
-      <c r="G33" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H33" s="39"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="12"/>
-      <c r="K33" s="21"/>
+      <c r="A33" s="38"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="13"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H33" s="37"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="20"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="40"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="14"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H34" s="39"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="12"/>
-      <c r="K34" s="21"/>
+      <c r="A34" s="38"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="20"/>
+      <c r="G34" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H34" s="37"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A35" s="40"/>
-      <c r="B35" s="21"/>
-      <c r="C35" s="14"/>
-      <c r="D35" s="39"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H35" s="39"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="12"/>
-      <c r="K35" s="21"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H35" s="37"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="40"/>
-      <c r="B36" s="21"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H36" s="39"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="12"/>
-      <c r="K36" s="21"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H36" s="37"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A37" s="40"/>
-      <c r="B37" s="21"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="39"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H37" s="39"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="12"/>
-      <c r="K37" s="21"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H37" s="37"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="20"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A38" s="40"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H38" s="39"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="12"/>
-      <c r="K38" s="21"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H38" s="37"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="20"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A39" s="40"/>
-      <c r="B39" s="21"/>
-      <c r="C39" s="14"/>
-      <c r="D39" s="39"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H39" s="39"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="12"/>
-      <c r="K39" s="21"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H39" s="37"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="20"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A40" s="40"/>
-      <c r="B40" s="21"/>
-      <c r="C40" s="14"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H40" s="39"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="12"/>
-      <c r="K40" s="21"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H40" s="37"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="20"/>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A41" s="40"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="39"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H41" s="39"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="12"/>
-      <c r="K41" s="21"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H41" s="37"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="20"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A42" s="40"/>
-      <c r="B42" s="21"/>
-      <c r="C42" s="14"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H42" s="39"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="12"/>
-      <c r="K42" s="21"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H42" s="37"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="40"/>
-      <c r="B43" s="21"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H43" s="39"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="12"/>
-      <c r="K43" s="21"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H43" s="37"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="40"/>
-      <c r="B44" s="21"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H44" s="39"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="12"/>
-      <c r="K44" s="21"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H44" s="37"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="40"/>
-      <c r="B45" s="21"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="21"/>
-      <c r="G45" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H45" s="39"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="12"/>
-      <c r="K45" s="21"/>
+      <c r="A45" s="38"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H45" s="37"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="40"/>
-      <c r="B46" s="21"/>
-      <c r="C46" s="14"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="21"/>
-      <c r="G46" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H46" s="39"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="12"/>
-      <c r="K46" s="21"/>
+      <c r="A46" s="38"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H46" s="37"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="20"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="40"/>
-      <c r="B47" s="21"/>
-      <c r="C47" s="14"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="21"/>
-      <c r="G47" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H47" s="39"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="12"/>
-      <c r="K47" s="21"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H47" s="37"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="40"/>
-      <c r="B48" s="21"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H48" s="39"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="12"/>
-      <c r="K48" s="21"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H48" s="37"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="40"/>
-      <c r="B49" s="21"/>
-      <c r="C49" s="14"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H49" s="39"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="12"/>
-      <c r="K49" s="21"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H49" s="37"/>
+      <c r="I49" s="9"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="40"/>
-      <c r="B50" s="21"/>
-      <c r="C50" s="14"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="21"/>
-      <c r="G50" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H50" s="39"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="12"/>
-      <c r="K50" s="21"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H50" s="37"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="40"/>
-      <c r="B51" s="21"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="39"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="21"/>
-      <c r="G51" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H51" s="39"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="12"/>
-      <c r="K51" s="21"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H51" s="37"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
-      <c r="B52" s="21"/>
-      <c r="C52" s="14"/>
-      <c r="D52" s="39"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="21"/>
-      <c r="G52" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H52" s="39"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="12"/>
-      <c r="K52" s="21"/>
+      <c r="A52" s="38"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="13"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H52" s="37"/>
+      <c r="I52" s="9"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="40"/>
-      <c r="B53" s="21"/>
-      <c r="C53" s="14"/>
-      <c r="D53" s="39"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="21"/>
-      <c r="G53" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H53" s="39"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="12"/>
-      <c r="K53" s="21"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H53" s="37"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="40"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="14"/>
-      <c r="D54" s="39"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="21"/>
-      <c r="G54" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H54" s="39"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="12"/>
-      <c r="K54" s="21"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H54" s="37"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="40"/>
-      <c r="B55" s="21"/>
-      <c r="C55" s="14"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="21"/>
-      <c r="G55" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H55" s="39"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="12"/>
-      <c r="K55" s="21"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="20"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H55" s="37"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="40"/>
-      <c r="B56" s="21"/>
-      <c r="C56" s="14"/>
-      <c r="D56" s="39"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="21"/>
-      <c r="G56" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H56" s="39"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="12"/>
-      <c r="K56" s="21"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="20"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H56" s="37"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="40"/>
-      <c r="B57" s="21"/>
-      <c r="C57" s="14"/>
-      <c r="D57" s="39"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="21"/>
-      <c r="G57" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H57" s="39"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="12"/>
-      <c r="K57" s="21"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="20"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H57" s="37"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="40"/>
-      <c r="B58" s="21"/>
-      <c r="C58" s="14"/>
-      <c r="D58" s="39"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H58" s="39"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="12"/>
-      <c r="K58" s="21"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="20"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H58" s="37"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="20"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="40"/>
-      <c r="B59" s="21"/>
-      <c r="C59" s="14"/>
-      <c r="D59" s="39"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="21"/>
-      <c r="G59" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H59" s="39"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="12"/>
-      <c r="K59" s="21"/>
+      <c r="A59" s="38"/>
+      <c r="B59" s="20"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H59" s="37"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="20"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="40"/>
-      <c r="B60" s="21"/>
-      <c r="C60" s="14"/>
-      <c r="D60" s="39"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="21"/>
-      <c r="G60" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H60" s="39"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="12"/>
-      <c r="K60" s="21"/>
+      <c r="A60" s="38"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H60" s="37"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="20"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="40"/>
-      <c r="B61" s="21"/>
-      <c r="C61" s="14"/>
-      <c r="D61" s="39"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="21"/>
-      <c r="G61" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H61" s="39"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="12"/>
-      <c r="K61" s="21"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H61" s="37"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="40"/>
-      <c r="B62" s="21"/>
-      <c r="C62" s="14"/>
-      <c r="D62" s="39"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="21"/>
-      <c r="G62" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H62" s="39"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="12"/>
-      <c r="K62" s="21"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="20"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H62" s="37"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="40"/>
-      <c r="B63" s="21"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="39"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="21"/>
-      <c r="G63" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H63" s="39"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="12"/>
-      <c r="K63" s="21"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H63" s="37"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="40"/>
-      <c r="B64" s="21"/>
-      <c r="C64" s="14"/>
-      <c r="D64" s="39"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H64" s="39"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="12"/>
-      <c r="K64" s="21"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H64" s="37"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="40"/>
-      <c r="B65" s="21"/>
-      <c r="C65" s="14"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="21"/>
-      <c r="G65" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H65" s="39"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="12"/>
-      <c r="K65" s="21"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H65" s="37"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="20"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="40"/>
-      <c r="B66" s="21"/>
-      <c r="C66" s="14"/>
-      <c r="D66" s="39"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="21"/>
-      <c r="G66" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H66" s="39"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="12"/>
-      <c r="K66" s="21"/>
+      <c r="A66" s="38"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H66" s="37"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="20"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="40"/>
-      <c r="B67" s="21"/>
-      <c r="C67" s="14"/>
-      <c r="D67" s="39"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="21"/>
-      <c r="G67" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H67" s="39"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="12"/>
-      <c r="K67" s="21"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="20"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H67" s="37"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="20"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="40"/>
-      <c r="B68" s="21"/>
-      <c r="C68" s="14"/>
-      <c r="D68" s="39"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="21"/>
-      <c r="G68" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H68" s="39"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="12"/>
-      <c r="K68" s="21"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="20"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H68" s="37"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="40"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="14"/>
-      <c r="D69" s="39"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H69" s="39"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="12"/>
-      <c r="K69" s="21"/>
+      <c r="A69" s="38"/>
+      <c r="B69" s="20"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H69" s="37"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="40"/>
-      <c r="B70" s="21"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="39"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="21"/>
-      <c r="G70" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H70" s="39"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="12"/>
-      <c r="K70" s="21"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="20"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H70" s="37"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="20"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="40"/>
-      <c r="B71" s="21"/>
-      <c r="C71" s="14"/>
-      <c r="D71" s="39"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="21"/>
-      <c r="G71" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H71" s="39"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="12"/>
-      <c r="K71" s="21"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="20"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H71" s="37"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="40"/>
-      <c r="B72" s="21"/>
-      <c r="C72" s="14"/>
-      <c r="D72" s="39"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H72" s="39"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="12"/>
-      <c r="K72" s="21"/>
+      <c r="A72" s="38"/>
+      <c r="B72" s="20"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H72" s="37"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="40"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="39"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="21"/>
-      <c r="G73" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H73" s="39"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="12"/>
-      <c r="K73" s="21"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H73" s="37"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="20"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="40"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="14"/>
-      <c r="D74" s="39"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="21"/>
-      <c r="G74" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H74" s="39"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="12"/>
-      <c r="K74" s="21"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="20"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="37"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H74" s="37"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="40"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="14"/>
-      <c r="D75" s="39"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="21"/>
-      <c r="G75" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H75" s="39"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="12"/>
-      <c r="K75" s="21"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="20"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="37"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H75" s="37"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="40"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="14"/>
-      <c r="D76" s="39"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="21"/>
-      <c r="G76" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H76" s="39"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="12"/>
-      <c r="K76" s="21"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="37"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H76" s="37"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
-      <c r="B77" s="21"/>
-      <c r="C77" s="14"/>
-      <c r="D77" s="39"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="21"/>
-      <c r="G77" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H77" s="39"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="12"/>
-      <c r="K77" s="21"/>
+      <c r="A77" s="38"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="37"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H77" s="37"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
-      <c r="B78" s="21"/>
-      <c r="C78" s="14"/>
-      <c r="D78" s="39"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="21"/>
-      <c r="G78" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H78" s="39"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="12"/>
-      <c r="K78" s="21"/>
+      <c r="A78" s="38"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="37"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H78" s="37"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="40"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="14"/>
-      <c r="D79" s="39"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="21"/>
-      <c r="G79" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H79" s="39"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="12"/>
-      <c r="K79" s="21"/>
+      <c r="A79" s="38"/>
+      <c r="B79" s="20"/>
+      <c r="C79" s="13"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H79" s="37"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="14"/>
-      <c r="D80" s="39"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="21"/>
-      <c r="G80" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H80" s="39"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="12"/>
-      <c r="K80" s="21"/>
+      <c r="A80" s="38"/>
+      <c r="B80" s="20"/>
+      <c r="C80" s="13"/>
+      <c r="D80" s="37"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H80" s="37"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="14"/>
-      <c r="D81" s="39"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="21"/>
-      <c r="G81" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H81" s="39"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="12"/>
-      <c r="K81" s="21"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="20"/>
+      <c r="C81" s="13"/>
+      <c r="D81" s="37"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H81" s="37"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="14"/>
-      <c r="D82" s="39"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="21"/>
-      <c r="G82" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H82" s="39"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="12"/>
-      <c r="K82" s="21"/>
+      <c r="A82" s="38"/>
+      <c r="B82" s="20"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="37"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H82" s="37"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
-      <c r="B83" s="21"/>
-      <c r="C83" s="14"/>
-      <c r="D83" s="39"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="21"/>
-      <c r="G83" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H83" s="39"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="12"/>
-      <c r="K83" s="21"/>
+      <c r="A83" s="38"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="13"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H83" s="37"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
-      <c r="B84" s="21"/>
-      <c r="C84" s="14"/>
-      <c r="D84" s="39"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H84" s="39"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="12"/>
-      <c r="K84" s="21"/>
+      <c r="A84" s="38"/>
+      <c r="B84" s="20"/>
+      <c r="C84" s="13"/>
+      <c r="D84" s="37"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H84" s="37"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
-      <c r="B85" s="21"/>
-      <c r="C85" s="14"/>
-      <c r="D85" s="39"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="21"/>
-      <c r="G85" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H85" s="39"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="12"/>
-      <c r="K85" s="21"/>
+      <c r="A85" s="38"/>
+      <c r="B85" s="20"/>
+      <c r="C85" s="13"/>
+      <c r="D85" s="37"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H85" s="37"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
-      <c r="B86" s="21"/>
-      <c r="C86" s="14"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H86" s="39"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="12"/>
-      <c r="K86" s="21"/>
+      <c r="A86" s="38"/>
+      <c r="B86" s="20"/>
+      <c r="C86" s="13"/>
+      <c r="D86" s="37"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H86" s="37"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
-      <c r="B87" s="21"/>
-      <c r="C87" s="14"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="21"/>
-      <c r="G87" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H87" s="39"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="12"/>
-      <c r="K87" s="21"/>
+      <c r="A87" s="38"/>
+      <c r="B87" s="20"/>
+      <c r="C87" s="13"/>
+      <c r="D87" s="37"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H87" s="37"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
-      <c r="B88" s="21"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H88" s="39"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="12"/>
-      <c r="K88" s="21"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="37"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H88" s="37"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
-      <c r="B89" s="21"/>
-      <c r="C89" s="14"/>
-      <c r="D89" s="39"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="21"/>
-      <c r="G89" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H89" s="39"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="12"/>
-      <c r="K89" s="21"/>
+      <c r="A89" s="38"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="37"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H89" s="37"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
-      <c r="B90" s="21"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="39"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="21"/>
-      <c r="G90" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H90" s="39"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="12"/>
-      <c r="K90" s="21"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="37"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H90" s="37"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
-      <c r="B91" s="21"/>
-      <c r="C91" s="14"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="21"/>
-      <c r="G91" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H91" s="39"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="12"/>
-      <c r="K91" s="21"/>
+      <c r="A91" s="38"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="37"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H91" s="37"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
-      <c r="B92" s="21"/>
-      <c r="C92" s="14"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="21"/>
-      <c r="G92" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H92" s="39"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="12"/>
-      <c r="K92" s="21"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="37"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H92" s="37"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
-      <c r="B93" s="21"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="39"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="21"/>
-      <c r="G93" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H93" s="39"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="12"/>
-      <c r="K93" s="21"/>
+      <c r="A93" s="38"/>
+      <c r="B93" s="20"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="37"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H93" s="37"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
-      <c r="B94" s="21"/>
-      <c r="C94" s="14"/>
-      <c r="D94" s="39"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="21"/>
-      <c r="G94" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H94" s="39"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="12"/>
-      <c r="K94" s="21"/>
+      <c r="A94" s="38"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="37"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H94" s="37"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
-      <c r="B95" s="21"/>
-      <c r="C95" s="14"/>
-      <c r="D95" s="39"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="21"/>
-      <c r="G95" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H95" s="39"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="12"/>
-      <c r="K95" s="21"/>
+      <c r="A95" s="38"/>
+      <c r="B95" s="20"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="37"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H95" s="37"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
-      <c r="B96" s="21"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="21"/>
-      <c r="G96" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H96" s="39"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="12"/>
-      <c r="K96" s="21"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="20"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="37"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H96" s="37"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
-      <c r="B97" s="21"/>
-      <c r="C97" s="14"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="21"/>
-      <c r="G97" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H97" s="39"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="12"/>
-      <c r="K97" s="21"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="20"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="37"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H97" s="37"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
-      <c r="B98" s="21"/>
-      <c r="C98" s="14"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="21"/>
-      <c r="G98" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H98" s="39"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="12"/>
-      <c r="K98" s="21"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="20"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="37"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H98" s="37"/>
+      <c r="I98" s="9"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
-      <c r="B99" s="21"/>
-      <c r="C99" s="14"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H99" s="39"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="12"/>
-      <c r="K99" s="21"/>
+      <c r="A99" s="38"/>
+      <c r="B99" s="20"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="37"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H99" s="37"/>
+      <c r="I99" s="9"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="14"/>
-      <c r="D100" s="39"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="21"/>
-      <c r="G100" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H100" s="39"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="12"/>
-      <c r="K100" s="21"/>
+      <c r="A100" s="38"/>
+      <c r="B100" s="20"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="37"/>
+      <c r="E100" s="9"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H100" s="37"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
-      <c r="B101" s="21"/>
-      <c r="C101" s="14"/>
-      <c r="D101" s="39"/>
-      <c r="E101" s="10"/>
-      <c r="F101" s="21"/>
-      <c r="G101" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H101" s="39"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="12"/>
-      <c r="K101" s="21"/>
+      <c r="A101" s="38"/>
+      <c r="B101" s="20"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="37"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H101" s="37"/>
+      <c r="I101" s="9"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
-      <c r="B102" s="21"/>
-      <c r="C102" s="14"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="10"/>
-      <c r="F102" s="21"/>
-      <c r="G102" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H102" s="39"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="12"/>
-      <c r="K102" s="21"/>
+      <c r="A102" s="38"/>
+      <c r="B102" s="20"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="37"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H102" s="37"/>
+      <c r="I102" s="9"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
-      <c r="B103" s="21"/>
-      <c r="C103" s="14"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="10"/>
-      <c r="F103" s="21"/>
-      <c r="G103" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H103" s="39"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="12"/>
-      <c r="K103" s="21"/>
+      <c r="A103" s="38"/>
+      <c r="B103" s="20"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="37"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H103" s="37"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
-      <c r="B104" s="21"/>
-      <c r="C104" s="14"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H104" s="39"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="12"/>
-      <c r="K104" s="21"/>
+      <c r="A104" s="38"/>
+      <c r="B104" s="20"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="37"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H104" s="37"/>
+      <c r="I104" s="9"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
-      <c r="B105" s="21"/>
-      <c r="C105" s="14"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="10"/>
-      <c r="F105" s="21"/>
-      <c r="G105" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H105" s="39"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="12"/>
-      <c r="K105" s="21"/>
+      <c r="A105" s="38"/>
+      <c r="B105" s="20"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="37"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H105" s="37"/>
+      <c r="I105" s="9"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
-      <c r="B106" s="21"/>
-      <c r="C106" s="14"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="10"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H106" s="39"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="12"/>
-      <c r="K106" s="21"/>
+      <c r="A106" s="38"/>
+      <c r="B106" s="20"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H106" s="37"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
-      <c r="B107" s="21"/>
-      <c r="C107" s="14"/>
-      <c r="D107" s="39"/>
-      <c r="E107" s="10"/>
-      <c r="F107" s="21"/>
-      <c r="G107" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H107" s="39"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="12"/>
-      <c r="K107" s="21"/>
+      <c r="A107" s="38"/>
+      <c r="B107" s="20"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="37"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H107" s="37"/>
+      <c r="I107" s="9"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
-      <c r="B108" s="21"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="10"/>
-      <c r="F108" s="21"/>
-      <c r="G108" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H108" s="39"/>
-      <c r="I108" s="10"/>
-      <c r="J108" s="12"/>
-      <c r="K108" s="21"/>
+      <c r="A108" s="38"/>
+      <c r="B108" s="20"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="37"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H108" s="37"/>
+      <c r="I108" s="9"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
-      <c r="B109" s="21"/>
-      <c r="C109" s="14"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="21"/>
-      <c r="G109" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H109" s="39"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="12"/>
-      <c r="K109" s="21"/>
+      <c r="A109" s="38"/>
+      <c r="B109" s="20"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="37"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H109" s="37"/>
+      <c r="I109" s="9"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
-      <c r="B110" s="21"/>
-      <c r="C110" s="14"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="10"/>
-      <c r="F110" s="21"/>
-      <c r="G110" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H110" s="39"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="12"/>
-      <c r="K110" s="21"/>
+      <c r="A110" s="38"/>
+      <c r="B110" s="20"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="37"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H110" s="37"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
-      <c r="B111" s="21"/>
-      <c r="C111" s="14"/>
-      <c r="D111" s="39"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="21"/>
-      <c r="G111" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H111" s="39"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="12"/>
-      <c r="K111" s="21"/>
+      <c r="A111" s="38"/>
+      <c r="B111" s="20"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="37"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H111" s="37"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40"/>
-      <c r="B112" s="21"/>
-      <c r="C112" s="14"/>
-      <c r="D112" s="39"/>
-      <c r="E112" s="10"/>
-      <c r="F112" s="21"/>
-      <c r="G112" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H112" s="39"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="12"/>
-      <c r="K112" s="21"/>
+      <c r="A112" s="38"/>
+      <c r="B112" s="20"/>
+      <c r="C112" s="13"/>
+      <c r="D112" s="37"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H112" s="37"/>
+      <c r="I112" s="9"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="40"/>
-      <c r="B113" s="21"/>
-      <c r="C113" s="14"/>
-      <c r="D113" s="39"/>
-      <c r="E113" s="10"/>
-      <c r="F113" s="21"/>
-      <c r="G113" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H113" s="39"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="21"/>
+      <c r="A113" s="38"/>
+      <c r="B113" s="20"/>
+      <c r="C113" s="13"/>
+      <c r="D113" s="37"/>
+      <c r="E113" s="9"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H113" s="37"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="40"/>
-      <c r="B114" s="21"/>
-      <c r="C114" s="14"/>
-      <c r="D114" s="39"/>
-      <c r="E114" s="10"/>
-      <c r="F114" s="21"/>
-      <c r="G114" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H114" s="39"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="12"/>
-      <c r="K114" s="21"/>
+      <c r="A114" s="38"/>
+      <c r="B114" s="20"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="37"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H114" s="37"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="40"/>
-      <c r="B115" s="21"/>
-      <c r="C115" s="14"/>
-      <c r="D115" s="39"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H115" s="39"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="21"/>
+      <c r="A115" s="38"/>
+      <c r="B115" s="20"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="37"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H115" s="37"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="40"/>
-      <c r="B116" s="21"/>
-      <c r="C116" s="14"/>
-      <c r="D116" s="39"/>
-      <c r="E116" s="10"/>
-      <c r="F116" s="21"/>
-      <c r="G116" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H116" s="39"/>
-      <c r="I116" s="10"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="21"/>
+      <c r="A116" s="38"/>
+      <c r="B116" s="20"/>
+      <c r="C116" s="13"/>
+      <c r="D116" s="37"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="20"/>
+      <c r="G116" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H116" s="37"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="40"/>
-      <c r="B117" s="21"/>
-      <c r="C117" s="14"/>
-      <c r="D117" s="39"/>
-      <c r="E117" s="10"/>
-      <c r="F117" s="21"/>
-      <c r="G117" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H117" s="39"/>
-      <c r="I117" s="10"/>
-      <c r="J117" s="12"/>
-      <c r="K117" s="21"/>
+      <c r="A117" s="38"/>
+      <c r="B117" s="20"/>
+      <c r="C117" s="13"/>
+      <c r="D117" s="37"/>
+      <c r="E117" s="9"/>
+      <c r="F117" s="20"/>
+      <c r="G117" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H117" s="37"/>
+      <c r="I117" s="9"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="40"/>
-      <c r="B118" s="21"/>
-      <c r="C118" s="14"/>
-      <c r="D118" s="39"/>
-      <c r="E118" s="10"/>
-      <c r="F118" s="21"/>
-      <c r="G118" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H118" s="39"/>
-      <c r="I118" s="10"/>
-      <c r="J118" s="12"/>
-      <c r="K118" s="21"/>
+      <c r="A118" s="38"/>
+      <c r="B118" s="20"/>
+      <c r="C118" s="13"/>
+      <c r="D118" s="37"/>
+      <c r="E118" s="9"/>
+      <c r="F118" s="20"/>
+      <c r="G118" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H118" s="37"/>
+      <c r="I118" s="9"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="40"/>
-      <c r="B119" s="21"/>
-      <c r="C119" s="14"/>
-      <c r="D119" s="39"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="21"/>
-      <c r="G119" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H119" s="39"/>
-      <c r="I119" s="10"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="21"/>
+      <c r="A119" s="38"/>
+      <c r="B119" s="20"/>
+      <c r="C119" s="13"/>
+      <c r="D119" s="37"/>
+      <c r="E119" s="9"/>
+      <c r="F119" s="20"/>
+      <c r="G119" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H119" s="37"/>
+      <c r="I119" s="9"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="40"/>
-      <c r="B120" s="21"/>
-      <c r="C120" s="14"/>
-      <c r="D120" s="39"/>
-      <c r="E120" s="10"/>
-      <c r="F120" s="21"/>
-      <c r="G120" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H120" s="39"/>
-      <c r="I120" s="10"/>
-      <c r="J120" s="12"/>
-      <c r="K120" s="21"/>
+      <c r="A120" s="38"/>
+      <c r="B120" s="20"/>
+      <c r="C120" s="13"/>
+      <c r="D120" s="37"/>
+      <c r="E120" s="9"/>
+      <c r="F120" s="20"/>
+      <c r="G120" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H120" s="37"/>
+      <c r="I120" s="9"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="40"/>
-      <c r="B121" s="21"/>
-      <c r="C121" s="14"/>
-      <c r="D121" s="39"/>
-      <c r="E121" s="10"/>
-      <c r="F121" s="21"/>
-      <c r="G121" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H121" s="39"/>
-      <c r="I121" s="10"/>
-      <c r="J121" s="12"/>
-      <c r="K121" s="21"/>
+      <c r="A121" s="38"/>
+      <c r="B121" s="20"/>
+      <c r="C121" s="13"/>
+      <c r="D121" s="37"/>
+      <c r="E121" s="9"/>
+      <c r="F121" s="20"/>
+      <c r="G121" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H121" s="37"/>
+      <c r="I121" s="9"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
-      <c r="B122" s="21"/>
-      <c r="C122" s="14"/>
-      <c r="D122" s="39"/>
-      <c r="E122" s="10"/>
-      <c r="F122" s="21"/>
-      <c r="G122" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H122" s="39"/>
-      <c r="I122" s="10"/>
-      <c r="J122" s="12"/>
-      <c r="K122" s="21"/>
+      <c r="A122" s="38"/>
+      <c r="B122" s="20"/>
+      <c r="C122" s="13"/>
+      <c r="D122" s="37"/>
+      <c r="E122" s="9"/>
+      <c r="F122" s="20"/>
+      <c r="G122" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H122" s="37"/>
+      <c r="I122" s="9"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="40"/>
-      <c r="B123" s="21"/>
-      <c r="C123" s="14"/>
-      <c r="D123" s="39"/>
-      <c r="E123" s="10"/>
-      <c r="F123" s="21"/>
-      <c r="G123" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H123" s="39"/>
-      <c r="I123" s="10"/>
-      <c r="J123" s="12"/>
-      <c r="K123" s="21"/>
+      <c r="A123" s="38"/>
+      <c r="B123" s="20"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="37"/>
+      <c r="E123" s="9"/>
+      <c r="F123" s="20"/>
+      <c r="G123" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H123" s="37"/>
+      <c r="I123" s="9"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="40"/>
-      <c r="B124" s="21"/>
-      <c r="C124" s="14"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="10"/>
-      <c r="F124" s="21"/>
-      <c r="G124" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H124" s="39"/>
-      <c r="I124" s="10"/>
-      <c r="J124" s="12"/>
-      <c r="K124" s="21"/>
+      <c r="A124" s="38"/>
+      <c r="B124" s="20"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="37"/>
+      <c r="E124" s="9"/>
+      <c r="F124" s="20"/>
+      <c r="G124" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H124" s="37"/>
+      <c r="I124" s="9"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40"/>
-      <c r="B125" s="21"/>
-      <c r="C125" s="14"/>
-      <c r="D125" s="39"/>
-      <c r="E125" s="10"/>
-      <c r="F125" s="21"/>
-      <c r="G125" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H125" s="39"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="12"/>
-      <c r="K125" s="21"/>
+      <c r="A125" s="38"/>
+      <c r="B125" s="20"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="37"/>
+      <c r="E125" s="9"/>
+      <c r="F125" s="20"/>
+      <c r="G125" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H125" s="37"/>
+      <c r="I125" s="9"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="40"/>
-      <c r="B126" s="21"/>
-      <c r="C126" s="14"/>
-      <c r="D126" s="39"/>
-      <c r="E126" s="10"/>
-      <c r="F126" s="21"/>
-      <c r="G126" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H126" s="39"/>
-      <c r="I126" s="10"/>
-      <c r="J126" s="12"/>
-      <c r="K126" s="21"/>
+      <c r="A126" s="38"/>
+      <c r="B126" s="20"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="37"/>
+      <c r="E126" s="9"/>
+      <c r="F126" s="20"/>
+      <c r="G126" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H126" s="37"/>
+      <c r="I126" s="9"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="40"/>
-      <c r="B127" s="21"/>
-      <c r="C127" s="14"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="10"/>
-      <c r="F127" s="21"/>
-      <c r="G127" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H127" s="39"/>
-      <c r="I127" s="10"/>
-      <c r="J127" s="12"/>
-      <c r="K127" s="21"/>
+      <c r="A127" s="38"/>
+      <c r="B127" s="20"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="37"/>
+      <c r="E127" s="9"/>
+      <c r="F127" s="20"/>
+      <c r="G127" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H127" s="37"/>
+      <c r="I127" s="9"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="40"/>
-      <c r="B128" s="21"/>
-      <c r="C128" s="14"/>
-      <c r="D128" s="39"/>
-      <c r="E128" s="10"/>
-      <c r="F128" s="21"/>
-      <c r="G128" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H128" s="39"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="12"/>
-      <c r="K128" s="21"/>
+      <c r="A128" s="38"/>
+      <c r="B128" s="20"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="37"/>
+      <c r="E128" s="9"/>
+      <c r="F128" s="20"/>
+      <c r="G128" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H128" s="37"/>
+      <c r="I128" s="9"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="40"/>
-      <c r="B129" s="21"/>
-      <c r="C129" s="14"/>
-      <c r="D129" s="39"/>
-      <c r="E129" s="10"/>
-      <c r="F129" s="21"/>
-      <c r="G129" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H129" s="39"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="12"/>
-      <c r="K129" s="21"/>
+      <c r="A129" s="38"/>
+      <c r="B129" s="20"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="37"/>
+      <c r="E129" s="9"/>
+      <c r="F129" s="20"/>
+      <c r="G129" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H129" s="37"/>
+      <c r="I129" s="9"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="41"/>
-      <c r="B130" s="16"/>
-      <c r="C130" s="42"/>
-      <c r="D130" s="43"/>
-      <c r="E130" s="10"/>
-      <c r="F130" s="16"/>
-      <c r="G130" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H130" s="43"/>
-      <c r="I130" s="10"/>
-      <c r="J130" s="13"/>
-      <c r="K130" s="16"/>
+      <c r="A130" s="39"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="40"/>
+      <c r="D130" s="41"/>
+      <c r="E130" s="9"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="40" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H130" s="41"/>
+      <c r="I130" s="9"/>
+      <c r="J130" s="12"/>
+      <c r="K130" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3410,7 +3406,7 @@
     <col min="7" max="7" width="26.109375" customWidth="1"/>
     <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="46" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="44" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3428,10 +3424,10 @@
       <c r="L1" s="57"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="32" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -3443,7 +3439,7 @@
       <c r="F2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="44" t="s">
+      <c r="G2" s="42" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="2" t="s">
@@ -3452,32 +3448,32 @@
       <c r="K2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="44" t="s">
+      <c r="L2" s="42" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="45">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="43">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
         <v>0</v>
       </c>
-      <c r="J3" s="59"/>
-      <c r="K3" s="37">
+      <c r="J3" s="46"/>
+      <c r="K3" s="35">
         <f>J4-1</f>
         <v>-1</v>
       </c>
-      <c r="L3" s="45" t="str">
+      <c r="L3" s="43" t="str">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
         <v>---</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G4" s="35"/>
+      <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
@@ -3487,19 +3483,19 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="33" t="s">
+      <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="60"/>
+      <c r="G6" s="47"/>
       <c r="I6" s="58" t="s">
         <v>38</v>
       </c>
@@ -3508,951 +3504,951 @@
       <c r="L6" s="58"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C7" s="46">
+      <c r="C7" s="44">
         <v>1</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="33">
         <v>2E-3</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="33">
         <v>0.125</v>
       </c>
-      <c r="G7" s="60"/>
-      <c r="I7" s="33" t="s">
+      <c r="G7" s="47"/>
+      <c r="I7" s="30" t="s">
         <v>39</v>
       </c>
-      <c r="J7" s="33" t="s">
+      <c r="J7" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="K7" s="33" t="s">
+      <c r="K7" s="30" t="s">
         <v>41</v>
       </c>
-      <c r="L7" s="33" t="s">
+      <c r="L7" s="30" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C8" s="46">
+      <c r="C8" s="44">
         <v>2</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="33">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="E8" s="1">
         <v>2</v>
       </c>
-      <c r="F8" s="35">
+      <c r="F8" s="33">
         <v>0.25</v>
       </c>
       <c r="I8" s="1">
         <v>1</v>
       </c>
-      <c r="J8" s="35">
+      <c r="J8" s="33">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="K8" s="38">
+      <c r="K8" s="36">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="L8" s="38">
+      <c r="L8" s="36">
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C9" s="46">
+      <c r="C9" s="44">
         <v>3</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="33">
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="33">
         <v>0.375</v>
       </c>
       <c r="I9" s="1">
         <v>2</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="33">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="K9" s="38">
+      <c r="K9" s="36">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="L9" s="38">
+      <c r="L9" s="36">
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C10" s="46">
+      <c r="C10" s="44">
         <v>4</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="33">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="E10" s="1">
         <v>4</v>
       </c>
-      <c r="F10" s="35">
+      <c r="F10" s="33">
         <v>0.5</v>
       </c>
       <c r="I10" s="1">
         <v>3</v>
       </c>
-      <c r="J10" s="35">
+      <c r="J10" s="33">
         <v>0.125</v>
       </c>
-      <c r="K10" s="38">
+      <c r="K10" s="36">
         <v>0.125</v>
       </c>
-      <c r="L10" s="38">
+      <c r="L10" s="36">
         <v>0.125</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C11" s="46">
+      <c r="C11" s="44">
         <v>5</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="33">
         <v>0.01</v>
       </c>
       <c r="E11" s="1">
         <v>5</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="33">
         <v>0.625</v>
       </c>
       <c r="I11" s="1">
         <v>4</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="33">
         <v>0.16700000000000001</v>
       </c>
-      <c r="K11" s="38">
+      <c r="K11" s="36">
         <v>0.16700000000000001</v>
       </c>
-      <c r="L11" s="38">
+      <c r="L11" s="36">
         <v>0.16700000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C12" s="46">
+      <c r="C12" s="44">
         <v>6</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="33">
         <v>1.2E-2</v>
       </c>
       <c r="E12" s="1">
         <v>6</v>
       </c>
-      <c r="F12" s="35">
+      <c r="F12" s="33">
         <v>0.75</v>
       </c>
       <c r="I12" s="1">
         <v>5</v>
       </c>
-      <c r="J12" s="35">
+      <c r="J12" s="33">
         <v>0.20800000000000002</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="36">
         <v>0.20800000000000002</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="36">
         <v>0.20800000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C13" s="46">
+      <c r="C13" s="44">
         <v>7</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="33">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="E13" s="1">
         <v>7</v>
       </c>
-      <c r="F13" s="35">
+      <c r="F13" s="33">
         <v>0.875</v>
       </c>
       <c r="I13" s="1">
         <v>6</v>
       </c>
-      <c r="J13" s="35">
+      <c r="J13" s="33">
         <v>0.25</v>
       </c>
-      <c r="K13" s="38">
+      <c r="K13" s="36">
         <v>0.25</v>
       </c>
-      <c r="L13" s="38">
+      <c r="L13" s="36">
         <v>0.25</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C14" s="46">
+      <c r="C14" s="44">
         <v>8</v>
       </c>
-      <c r="D14" s="35">
+      <c r="D14" s="33">
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="E14" s="1">
         <v>8</v>
       </c>
-      <c r="F14" s="35">
+      <c r="F14" s="33">
         <v>1</v>
       </c>
       <c r="I14" s="1">
         <v>7</v>
       </c>
-      <c r="J14" s="35">
+      <c r="J14" s="33">
         <v>0.29199999999999998</v>
       </c>
-      <c r="K14" s="38">
+      <c r="K14" s="36">
         <v>0.29199999999999998</v>
       </c>
-      <c r="L14" s="38">
+      <c r="L14" s="36">
         <v>0.29199999999999998</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C15" s="46">
+      <c r="C15" s="44">
         <v>9</v>
       </c>
-      <c r="D15" s="35">
+      <c r="D15" s="33">
         <v>1.9000000000000003E-2</v>
       </c>
       <c r="I15" s="1">
         <v>8</v>
       </c>
-      <c r="J15" s="35">
+      <c r="J15" s="33">
         <v>0.33299999999999996</v>
       </c>
-      <c r="K15" s="38">
+      <c r="K15" s="36">
         <v>0.33299999999999996</v>
       </c>
-      <c r="L15" s="38">
+      <c r="L15" s="36">
         <v>0.33299999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="C16" s="46">
+      <c r="C16" s="44">
         <v>10</v>
       </c>
-      <c r="D16" s="35">
+      <c r="D16" s="33">
         <v>2.1000000000000005E-2</v>
       </c>
       <c r="I16" s="1">
         <v>9</v>
       </c>
-      <c r="J16" s="35">
+      <c r="J16" s="33">
         <v>0.37499999999999994</v>
       </c>
-      <c r="K16" s="38">
+      <c r="K16" s="36">
         <v>0.37499999999999994</v>
       </c>
-      <c r="L16" s="38">
+      <c r="L16" s="36">
         <v>0.37499999999999994</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C17" s="46">
+      <c r="C17" s="44">
         <v>11</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="33">
         <v>2.3000000000000007E-2</v>
       </c>
       <c r="I17" s="1">
         <v>10</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="33">
         <v>0.41699999999999993</v>
       </c>
-      <c r="K17" s="38">
+      <c r="K17" s="36">
         <v>0.41699999999999993</v>
       </c>
-      <c r="L17" s="38">
+      <c r="L17" s="36">
         <v>0.41699999999999993</v>
       </c>
     </row>
     <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="46">
+      <c r="C18" s="44">
         <v>12</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="33">
         <v>2.5000000000000008E-2</v>
       </c>
       <c r="G18"/>
       <c r="I18" s="1">
         <v>11</v>
       </c>
-      <c r="J18" s="35">
+      <c r="J18" s="33">
         <v>0.45799999999999991</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="36">
         <v>0.45799999999999991</v>
       </c>
-      <c r="L18" s="38">
+      <c r="L18" s="36">
         <v>0.45799999999999991</v>
       </c>
     </row>
     <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="46">
+      <c r="C19" s="44">
         <v>13</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="33">
         <v>2.700000000000001E-2</v>
       </c>
       <c r="G19"/>
       <c r="I19" s="1">
         <v>12</v>
       </c>
-      <c r="J19" s="35">
+      <c r="J19" s="33">
         <v>0.49999999999999989</v>
       </c>
-      <c r="K19" s="38">
+      <c r="K19" s="36">
         <v>0.49999999999999989</v>
       </c>
-      <c r="L19" s="38">
+      <c r="L19" s="36">
         <v>0.49999999999999989</v>
       </c>
     </row>
     <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="46">
+      <c r="C20" s="44">
         <v>14</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="33">
         <v>2.9000000000000012E-2</v>
       </c>
       <c r="G20"/>
       <c r="I20" s="1">
         <v>13</v>
       </c>
-      <c r="J20" s="35">
+      <c r="J20" s="33">
         <v>0.54199999999999993</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="36">
         <v>0.54199999999999993</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="36">
         <v>0.54199999999999993</v>
       </c>
     </row>
     <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="46">
+      <c r="C21" s="44">
         <v>15</v>
       </c>
-      <c r="D21" s="35">
+      <c r="D21" s="33">
         <v>3.1000000000000014E-2</v>
       </c>
       <c r="G21"/>
       <c r="I21" s="1">
         <v>14</v>
       </c>
-      <c r="J21" s="35">
+      <c r="J21" s="33">
         <v>0.58299999999999996</v>
       </c>
-      <c r="K21" s="38">
+      <c r="K21" s="36">
         <v>0.58299999999999996</v>
       </c>
-      <c r="L21" s="38">
+      <c r="L21" s="36">
         <v>0.58299999999999996</v>
       </c>
     </row>
     <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="46">
+      <c r="C22" s="44">
         <v>16</v>
       </c>
-      <c r="D22" s="35">
+      <c r="D22" s="33">
         <v>3.3000000000000015E-2</v>
       </c>
       <c r="G22"/>
       <c r="I22" s="1">
         <v>15</v>
       </c>
-      <c r="J22" s="35">
+      <c r="J22" s="33">
         <v>0.625</v>
       </c>
-      <c r="K22" s="38">
+      <c r="K22" s="36">
         <v>0.625</v>
       </c>
-      <c r="L22" s="38">
+      <c r="L22" s="36">
         <v>0.625</v>
       </c>
     </row>
     <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="46">
+      <c r="C23" s="44">
         <v>17</v>
       </c>
-      <c r="D23" s="35">
+      <c r="D23" s="33">
         <v>3.5000000000000017E-2</v>
       </c>
       <c r="G23"/>
       <c r="I23" s="1">
         <v>16</v>
       </c>
-      <c r="J23" s="35">
+      <c r="J23" s="33">
         <v>0.66700000000000004</v>
       </c>
-      <c r="K23" s="38">
+      <c r="K23" s="36">
         <v>0.66700000000000004</v>
       </c>
-      <c r="L23" s="38">
+      <c r="L23" s="36">
         <v>0.66700000000000004</v>
       </c>
     </row>
     <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="46">
+      <c r="C24" s="44">
         <v>18</v>
       </c>
-      <c r="D24" s="35">
+      <c r="D24" s="33">
         <v>3.7000000000000019E-2</v>
       </c>
       <c r="G24"/>
       <c r="I24" s="1">
         <v>17</v>
       </c>
-      <c r="J24" s="35">
+      <c r="J24" s="33">
         <v>0.70800000000000007</v>
       </c>
-      <c r="K24" s="38">
+      <c r="K24" s="36">
         <v>0.70800000000000007</v>
       </c>
-      <c r="L24" s="38">
+      <c r="L24" s="36">
         <v>0.70800000000000007</v>
       </c>
     </row>
     <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="46">
+      <c r="C25" s="44">
         <v>19</v>
       </c>
-      <c r="D25" s="35">
+      <c r="D25" s="33">
         <v>0.04</v>
       </c>
       <c r="G25"/>
       <c r="I25" s="1">
         <v>18</v>
       </c>
-      <c r="J25" s="35">
+      <c r="J25" s="33">
         <v>0.75000000000000011</v>
       </c>
-      <c r="K25" s="38">
+      <c r="K25" s="36">
         <v>0.75000000000000011</v>
       </c>
-      <c r="L25" s="38">
+      <c r="L25" s="36">
         <v>0.75000000000000011</v>
       </c>
     </row>
     <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="46">
+      <c r="C26" s="44">
         <v>20</v>
       </c>
-      <c r="D26" s="35">
+      <c r="D26" s="33">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="G26"/>
       <c r="I26" s="1">
         <v>19</v>
       </c>
-      <c r="J26" s="35">
+      <c r="J26" s="33">
         <v>0.79200000000000015</v>
       </c>
-      <c r="K26" s="38">
+      <c r="K26" s="36">
         <v>0.79200000000000015</v>
       </c>
-      <c r="L26" s="38">
+      <c r="L26" s="36">
         <v>0.79200000000000015</v>
       </c>
     </row>
     <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="46">
+      <c r="C27" s="44">
         <v>21</v>
       </c>
-      <c r="D27" s="35">
+      <c r="D27" s="33">
         <v>4.4000000000000004E-2</v>
       </c>
       <c r="G27"/>
       <c r="I27" s="1">
         <v>20</v>
       </c>
-      <c r="J27" s="35">
+      <c r="J27" s="33">
         <v>0.83300000000000018</v>
       </c>
-      <c r="K27" s="38">
+      <c r="K27" s="36">
         <v>0.83300000000000018</v>
       </c>
-      <c r="L27" s="38">
+      <c r="L27" s="36">
         <v>0.83300000000000018</v>
       </c>
     </row>
     <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="46">
+      <c r="C28" s="44">
         <v>22</v>
       </c>
-      <c r="D28" s="35">
+      <c r="D28" s="33">
         <v>4.6000000000000006E-2</v>
       </c>
       <c r="G28"/>
       <c r="I28" s="1">
         <v>21</v>
       </c>
-      <c r="J28" s="35">
+      <c r="J28" s="33">
         <v>0.87500000000000022</v>
       </c>
-      <c r="K28" s="38">
+      <c r="K28" s="36">
         <v>0.87500000000000022</v>
       </c>
-      <c r="L28" s="38">
+      <c r="L28" s="36">
         <v>0.87500000000000022</v>
       </c>
     </row>
     <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="46">
+      <c r="C29" s="44">
         <v>23</v>
       </c>
-      <c r="D29" s="35">
+      <c r="D29" s="33">
         <v>4.8000000000000008E-2</v>
       </c>
       <c r="G29"/>
       <c r="I29" s="1">
         <v>22</v>
       </c>
-      <c r="J29" s="35">
+      <c r="J29" s="33">
         <v>0.91700000000000026</v>
       </c>
-      <c r="K29" s="38">
+      <c r="K29" s="36">
         <v>0.91700000000000026</v>
       </c>
-      <c r="L29" s="38">
+      <c r="L29" s="36">
         <v>0.91700000000000026</v>
       </c>
     </row>
     <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C30" s="46">
+      <c r="C30" s="44">
         <v>24</v>
       </c>
-      <c r="D30" s="35">
+      <c r="D30" s="33">
         <v>5.000000000000001E-2</v>
       </c>
       <c r="G30"/>
       <c r="I30" s="1">
         <v>23</v>
       </c>
-      <c r="J30" s="35">
+      <c r="J30" s="33">
         <v>0.9580000000000003</v>
       </c>
-      <c r="K30" s="38">
+      <c r="K30" s="36">
         <v>0.9580000000000003</v>
       </c>
-      <c r="L30" s="38">
+      <c r="L30" s="36">
         <v>0.9580000000000003</v>
       </c>
     </row>
     <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="46">
+      <c r="C31" s="44">
         <v>25</v>
       </c>
-      <c r="D31" s="35">
+      <c r="D31" s="33">
         <v>5.2000000000000011E-2</v>
       </c>
       <c r="G31"/>
       <c r="I31" s="1">
         <v>24</v>
       </c>
-      <c r="J31" s="35">
+      <c r="J31" s="33">
         <v>1.0000000000000002</v>
       </c>
-      <c r="K31" s="38">
+      <c r="K31" s="36">
         <v>1.0000000000000002</v>
       </c>
-      <c r="L31" s="38">
+      <c r="L31" s="36">
         <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C32" s="46">
+      <c r="C32" s="44">
         <v>26</v>
       </c>
-      <c r="D32" s="35">
+      <c r="D32" s="33">
         <v>5.4000000000000013E-2</v>
       </c>
       <c r="G32"/>
       <c r="I32" s="1">
         <v>25</v>
       </c>
-      <c r="J32" s="35">
+      <c r="J32" s="33">
         <v>1.0420000000000003</v>
       </c>
-      <c r="K32" s="38">
+      <c r="K32" s="36">
         <v>1.0420000000000003</v>
       </c>
-      <c r="L32" s="38">
+      <c r="L32" s="36">
         <v>1.0420000000000003</v>
       </c>
     </row>
     <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="46">
+      <c r="C33" s="44">
         <v>27</v>
       </c>
-      <c r="D33" s="35">
+      <c r="D33" s="33">
         <v>5.6000000000000015E-2</v>
       </c>
       <c r="G33"/>
       <c r="I33" s="1">
         <v>26</v>
       </c>
-      <c r="J33" s="35">
+      <c r="J33" s="33">
         <v>1.0830000000000002</v>
       </c>
-      <c r="K33" s="38">
+      <c r="K33" s="36">
         <v>1.0830000000000002</v>
       </c>
-      <c r="L33" s="38">
+      <c r="L33" s="36">
         <v>1.0830000000000002</v>
       </c>
     </row>
     <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="46">
+      <c r="C34" s="44">
         <v>28</v>
       </c>
-      <c r="D34" s="35">
+      <c r="D34" s="33">
         <v>5.8000000000000017E-2</v>
       </c>
       <c r="G34"/>
       <c r="I34" s="1">
         <v>27</v>
       </c>
-      <c r="J34" s="35">
+      <c r="J34" s="33">
         <v>1.1250000000000002</v>
       </c>
-      <c r="K34" s="38">
+      <c r="K34" s="36">
         <v>1.1250000000000002</v>
       </c>
-      <c r="L34" s="38">
+      <c r="L34" s="36">
         <v>1.1250000000000002</v>
       </c>
     </row>
     <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="46">
+      <c r="C35" s="44">
         <v>29</v>
       </c>
-      <c r="D35" s="35">
+      <c r="D35" s="33">
         <v>6.0000000000000019E-2</v>
       </c>
       <c r="G35"/>
       <c r="I35" s="1">
         <v>28</v>
       </c>
-      <c r="J35" s="35">
+      <c r="J35" s="33">
         <v>1.1670000000000003</v>
       </c>
-      <c r="K35" s="38">
+      <c r="K35" s="36">
         <v>1.1670000000000003</v>
       </c>
-      <c r="L35" s="38">
+      <c r="L35" s="36">
         <v>1.1670000000000003</v>
       </c>
     </row>
     <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="46">
+      <c r="C36" s="44">
         <v>30</v>
       </c>
-      <c r="D36" s="35">
+      <c r="D36" s="33">
         <v>6.200000000000002E-2</v>
       </c>
       <c r="G36"/>
       <c r="I36" s="1">
         <v>29</v>
       </c>
-      <c r="J36" s="35">
+      <c r="J36" s="33">
         <v>1.2080000000000002</v>
       </c>
-      <c r="K36" s="38">
+      <c r="K36" s="36">
         <v>1.2080000000000002</v>
       </c>
-      <c r="L36" s="38">
+      <c r="L36" s="36">
         <v>1.2080000000000002</v>
       </c>
     </row>
     <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="46">
+      <c r="C37" s="44">
         <v>31</v>
       </c>
-      <c r="D37" s="35">
+      <c r="D37" s="33">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="G37"/>
       <c r="I37" s="1">
         <v>30</v>
       </c>
-      <c r="J37" s="35">
+      <c r="J37" s="33">
         <v>1.2500000000000002</v>
       </c>
-      <c r="K37" s="38">
+      <c r="K37" s="36">
         <v>1.2500000000000002</v>
       </c>
-      <c r="L37" s="38">
+      <c r="L37" s="36">
         <v>1.2500000000000002</v>
       </c>
     </row>
     <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="46">
+      <c r="C38" s="44">
         <v>32</v>
       </c>
-      <c r="D38" s="35">
+      <c r="D38" s="33">
         <v>6.7000000000000004E-2</v>
       </c>
       <c r="G38"/>
     </row>
     <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="46">
+      <c r="C39" s="44">
         <v>33</v>
       </c>
-      <c r="D39" s="35">
+      <c r="D39" s="33">
         <v>6.9000000000000006E-2</v>
       </c>
       <c r="G39"/>
     </row>
     <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C40" s="46">
+      <c r="C40" s="44">
         <v>34</v>
       </c>
-      <c r="D40" s="35">
+      <c r="D40" s="33">
         <v>7.1000000000000008E-2</v>
       </c>
       <c r="G40"/>
     </row>
     <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C41" s="46">
+      <c r="C41" s="44">
         <v>35</v>
       </c>
-      <c r="D41" s="35">
+      <c r="D41" s="33">
         <v>7.3000000000000009E-2</v>
       </c>
       <c r="G41"/>
     </row>
     <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C42" s="46">
+      <c r="C42" s="44">
         <v>36</v>
       </c>
-      <c r="D42" s="35">
+      <c r="D42" s="33">
         <v>7.5000000000000011E-2</v>
       </c>
       <c r="G42"/>
     </row>
     <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="46">
+      <c r="C43" s="44">
         <v>37</v>
       </c>
-      <c r="D43" s="35">
+      <c r="D43" s="33">
         <v>7.7000000000000013E-2</v>
       </c>
       <c r="G43"/>
     </row>
     <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="46">
+      <c r="C44" s="44">
         <v>38</v>
       </c>
-      <c r="D44" s="35">
+      <c r="D44" s="33">
         <v>7.9000000000000015E-2</v>
       </c>
       <c r="G44"/>
     </row>
     <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="46">
+      <c r="C45" s="44">
         <v>39</v>
       </c>
-      <c r="D45" s="35">
+      <c r="D45" s="33">
         <v>8.1000000000000016E-2</v>
       </c>
       <c r="G45"/>
     </row>
     <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="46">
+      <c r="C46" s="44">
         <v>40</v>
       </c>
-      <c r="D46" s="35">
+      <c r="D46" s="33">
         <v>8.3000000000000018E-2</v>
       </c>
       <c r="G46"/>
     </row>
     <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="46">
+      <c r="C47" s="44">
         <v>41</v>
       </c>
-      <c r="D47" s="35">
+      <c r="D47" s="33">
         <v>8.500000000000002E-2</v>
       </c>
       <c r="G47"/>
     </row>
     <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="46">
+      <c r="C48" s="44">
         <v>42</v>
       </c>
-      <c r="D48" s="35">
+      <c r="D48" s="33">
         <v>8.7000000000000022E-2</v>
       </c>
       <c r="G48"/>
     </row>
     <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="46">
+      <c r="C49" s="44">
         <v>43</v>
       </c>
-      <c r="D49" s="35">
+      <c r="D49" s="33">
         <v>0.09</v>
       </c>
       <c r="G49"/>
     </row>
     <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C50" s="46">
+      <c r="C50" s="44">
         <v>44</v>
       </c>
-      <c r="D50" s="35">
+      <c r="D50" s="33">
         <v>9.1999999999999998E-2</v>
       </c>
       <c r="G50"/>
     </row>
     <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C51" s="46">
+      <c r="C51" s="44">
         <v>45</v>
       </c>
-      <c r="D51" s="35">
+      <c r="D51" s="33">
         <v>9.4E-2</v>
       </c>
       <c r="G51"/>
     </row>
     <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C52" s="46">
+      <c r="C52" s="44">
         <v>46</v>
       </c>
-      <c r="D52" s="35">
+      <c r="D52" s="33">
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="G52"/>
     </row>
     <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C53" s="46">
+      <c r="C53" s="44">
         <v>47</v>
       </c>
-      <c r="D53" s="35">
+      <c r="D53" s="33">
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="G53"/>
     </row>
     <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C54" s="46">
+      <c r="C54" s="44">
         <v>48</v>
       </c>
-      <c r="D54" s="35">
+      <c r="D54" s="33">
         <v>0.1</v>
       </c>
       <c r="G54"/>
     </row>
     <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="46">
+      <c r="C55" s="44">
         <v>49</v>
       </c>
-      <c r="D55" s="35">
+      <c r="D55" s="33">
         <v>0.10200000000000001</v>
       </c>
       <c r="G55"/>
     </row>
     <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="46">
+      <c r="C56" s="44">
         <v>50</v>
       </c>
-      <c r="D56" s="35">
+      <c r="D56" s="33">
         <v>0.10400000000000001</v>
       </c>
       <c r="G56"/>
     </row>
     <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="46">
+      <c r="C57" s="44">
         <v>51</v>
       </c>
-      <c r="D57" s="35">
+      <c r="D57" s="33">
         <v>0.10600000000000001</v>
       </c>
       <c r="G57"/>
     </row>
     <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="46">
+      <c r="C58" s="44">
         <v>52</v>
       </c>
-      <c r="D58" s="35">
+      <c r="D58" s="33">
         <v>0.10800000000000001</v>
       </c>
       <c r="G58"/>
     </row>
     <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="46">
+      <c r="C59" s="44">
         <v>53</v>
       </c>
-      <c r="D59" s="35">
+      <c r="D59" s="33">
         <v>0.11000000000000001</v>
       </c>
       <c r="G59"/>
     </row>
     <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="46">
+      <c r="C60" s="44">
         <v>54</v>
       </c>
-      <c r="D60" s="35">
+      <c r="D60" s="33">
         <v>0.11200000000000002</v>
       </c>
       <c r="G60"/>
     </row>
     <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="46">
+      <c r="C61" s="44">
         <v>55</v>
       </c>
-      <c r="D61" s="35">
+      <c r="D61" s="33">
         <v>0.115</v>
       </c>
       <c r="G61"/>
     </row>
     <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="46">
+      <c r="C62" s="44">
         <v>56</v>
       </c>
-      <c r="D62" s="35">
+      <c r="D62" s="33">
         <v>0.11700000000000001</v>
       </c>
       <c r="G62"/>
     </row>
     <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="46">
+      <c r="C63" s="44">
         <v>57</v>
       </c>
-      <c r="D63" s="35">
+      <c r="D63" s="33">
         <v>0.11900000000000001</v>
       </c>
       <c r="G63"/>
     </row>
     <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="46">
+      <c r="C64" s="44">
         <v>58</v>
       </c>
-      <c r="D64" s="35">
+      <c r="D64" s="33">
         <v>0.12100000000000001</v>
       </c>
       <c r="G64"/>
     </row>
     <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="46">
+      <c r="C65" s="44">
         <v>59</v>
       </c>
-      <c r="D65" s="35">
+      <c r="D65" s="33">
         <v>0.12300000000000001</v>
       </c>
       <c r="G65"/>
     </row>
     <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="46">
+      <c r="C66" s="44">
         <v>60</v>
       </c>
-      <c r="D66" s="35">
+      <c r="D66" s="33">
         <v>0.125</v>
       </c>
       <c r="G66"/>

--- a/JOBCON/DOGELIO, JEAN MELODY MARANAN.xlsx
+++ b/JOBCON/DOGELIO, JEAN MELODY MARANAN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\JOBCON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\JOBCON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB39746-B3E9-4242-BF28-E08C9436036D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,25 +23,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>PERIOD</t>
   </si>
@@ -189,12 +180,24 @@
   </si>
   <si>
     <t>SL(5-0-0)</t>
+  </si>
+  <si>
+    <t>11/21-25/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>SL(2-0-0)</t>
+  </si>
+  <si>
+    <t>2/1,2/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -425,7 +428,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -564,6 +567,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -597,7 +603,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -832,7 +838,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -878,25 +883,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1203,93 +1208,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="54"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="50"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="51"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="51"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1297,7 +1302,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1310,24 +1315,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1362,7 +1367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1386,7 +1391,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="38">
         <v>44743</v>
       </c>
@@ -1414,7 +1419,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>44817</v>
       </c>
@@ -1438,7 +1443,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>44893</v>
       </c>
@@ -1458,12 +1463,14 @@
       <c r="J12" s="11">
         <v>5</v>
       </c>
-      <c r="K12" s="59">
-        <v>45982</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="38"/>
+      <c r="K12" s="48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="60" t="s">
+        <v>50</v>
+      </c>
       <c r="B13" s="20"/>
       <c r="C13" s="13"/>
       <c r="D13" s="37"/>
@@ -1478,9 +1485,13 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="38"/>
-      <c r="B14" s="20"/>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
+        <v>44958</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C14" s="13"/>
       <c r="D14" s="37"/>
       <c r="E14" s="9"/>
@@ -1491,10 +1502,14 @@
       </c>
       <c r="H14" s="37"/>
       <c r="I14" s="9"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="20"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J14" s="11">
+        <v>2</v>
+      </c>
+      <c r="K14" s="20" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="38"/>
       <c r="B15" s="20"/>
       <c r="C15" s="13"/>
@@ -1510,7 +1525,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="39"/>
       <c r="B16" s="15"/>
       <c r="C16" s="40"/>
@@ -1526,7 +1541,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
@@ -1542,7 +1557,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="38"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -1558,7 +1573,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -1574,7 +1589,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -1590,7 +1605,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -1606,7 +1621,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -1622,7 +1637,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -1638,7 +1653,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -1654,7 +1669,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -1670,7 +1685,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -1686,7 +1701,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -1702,7 +1717,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -1718,7 +1733,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -1734,7 +1749,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -1750,7 +1765,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -1766,7 +1781,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -1782,7 +1797,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="38"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -1798,7 +1813,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -1814,7 +1829,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -1830,7 +1845,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -1846,7 +1861,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -1862,7 +1877,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -1878,7 +1893,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -1894,7 +1909,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="38"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -1910,7 +1925,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="38"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -1926,7 +1941,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="38"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -1942,7 +1957,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -1958,7 +1973,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -1974,7 +1989,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -1990,7 +2005,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -2006,7 +2021,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -2022,7 +2037,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -2038,7 +2053,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -2054,7 +2069,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -2070,7 +2085,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -2086,7 +2101,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -2102,7 +2117,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -2118,7 +2133,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="38"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -2134,7 +2149,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -2150,7 +2165,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -2166,7 +2181,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -2182,7 +2197,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -2198,7 +2213,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -2214,7 +2229,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -2230,7 +2245,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -2246,7 +2261,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -2262,7 +2277,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -2278,7 +2293,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -2294,7 +2309,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -2310,7 +2325,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -2326,7 +2341,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -2342,7 +2357,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -2358,7 +2373,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -2374,7 +2389,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -2390,7 +2405,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -2406,7 +2421,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="38"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -2422,7 +2437,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="38"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -2438,7 +2453,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="38"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -2454,7 +2469,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -2470,7 +2485,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="38"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -2486,7 +2501,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="38"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -2502,7 +2517,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="38"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -2518,7 +2533,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="38"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -2534,7 +2549,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="38"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -2550,7 +2565,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="38"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -2566,7 +2581,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="38"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -2582,7 +2597,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="38"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -2598,7 +2613,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="38"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -2614,7 +2629,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="38"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -2630,7 +2645,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="38"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -2646,7 +2661,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="38"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -2662,7 +2677,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="38"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -2678,7 +2693,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="38"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -2694,7 +2709,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="38"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -2710,7 +2725,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="38"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -2726,7 +2741,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="38"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -2742,7 +2757,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="38"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -2758,7 +2773,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="38"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -2774,7 +2789,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="38"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -2790,7 +2805,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="38"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -2806,7 +2821,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="38"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -2822,7 +2837,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="38"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -2838,7 +2853,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="38"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -2854,7 +2869,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="38"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -2870,7 +2885,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="38"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -2886,7 +2901,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="38"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -2902,7 +2917,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="38"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -2918,7 +2933,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="38"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -2934,7 +2949,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="38"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -2950,7 +2965,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="38"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -2966,7 +2981,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="38"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -2982,7 +2997,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="38"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -2998,7 +3013,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="38"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3014,7 +3029,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="38"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3030,7 +3045,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="38"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3046,7 +3061,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="38"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3062,7 +3077,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="38"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3078,7 +3093,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="38"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3094,7 +3109,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="38"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3110,7 +3125,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="38"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3126,7 +3141,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="38"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3142,7 +3157,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="38"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3158,7 +3173,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="38"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3174,7 +3189,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="38"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3190,7 +3205,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="38"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3206,7 +3221,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="38"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3222,7 +3237,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="38"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3238,7 +3253,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="38"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3254,7 +3269,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="38"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3270,7 +3285,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="38"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3286,7 +3301,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="38"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3302,7 +3317,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="38"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3318,7 +3333,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="38"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3334,7 +3349,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="39"/>
       <c r="B130" s="15"/>
       <c r="C130" s="40"/>
@@ -3365,10 +3380,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CONTRACTUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3389,41 +3404,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="44" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="44" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="56" t="s">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D1" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="J1" s="57" t="s">
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="J1" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="57"/>
-      <c r="L1" s="57"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3452,7 +3467,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -3472,17 +3487,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="45" t="s">
         <v>28</v>
       </c>
@@ -3496,14 +3511,14 @@
         <v>30</v>
       </c>
       <c r="G6" s="47"/>
-      <c r="I6" s="58" t="s">
+      <c r="I6" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="44">
         <v>1</v>
       </c>
@@ -3530,7 +3545,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="44">
         <v>2</v>
       </c>
@@ -3556,7 +3571,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="44">
         <v>3</v>
       </c>
@@ -3582,7 +3597,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="44">
         <v>4</v>
       </c>
@@ -3608,7 +3623,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="44">
         <v>5</v>
       </c>
@@ -3634,7 +3649,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="44">
         <v>6</v>
       </c>
@@ -3660,7 +3675,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="44">
         <v>7</v>
       </c>
@@ -3686,7 +3701,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="44">
         <v>8</v>
       </c>
@@ -3712,7 +3727,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="44">
         <v>9</v>
       </c>
@@ -3732,7 +3747,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="44">
         <v>10</v>
       </c>
@@ -3752,7 +3767,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="44">
         <v>11</v>
       </c>
@@ -3772,7 +3787,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="44">
         <v>12</v>
       </c>
@@ -3793,7 +3808,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="44">
         <v>13</v>
       </c>
@@ -3814,7 +3829,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="44">
         <v>14</v>
       </c>
@@ -3835,7 +3850,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="44">
         <v>15</v>
       </c>
@@ -3856,7 +3871,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="44">
         <v>16</v>
       </c>
@@ -3877,7 +3892,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="44">
         <v>17</v>
       </c>
@@ -3898,7 +3913,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="44">
         <v>18</v>
       </c>
@@ -3919,7 +3934,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="44">
         <v>19</v>
       </c>
@@ -3940,7 +3955,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="44">
         <v>20</v>
       </c>
@@ -3961,7 +3976,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="44">
         <v>21</v>
       </c>
@@ -3982,7 +3997,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="44">
         <v>22</v>
       </c>
@@ -4003,7 +4018,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="44">
         <v>23</v>
       </c>
@@ -4024,7 +4039,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="44">
         <v>24</v>
       </c>
@@ -4045,7 +4060,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="44">
         <v>25</v>
       </c>
@@ -4066,7 +4081,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="44">
         <v>26</v>
       </c>
@@ -4087,7 +4102,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="44">
         <v>27</v>
       </c>
@@ -4108,7 +4123,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="44">
         <v>28</v>
       </c>
@@ -4129,7 +4144,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="44">
         <v>29</v>
       </c>
@@ -4150,7 +4165,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="44">
         <v>30</v>
       </c>
@@ -4171,7 +4186,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="44">
         <v>31</v>
       </c>
@@ -4192,7 +4207,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="44">
         <v>32</v>
       </c>
@@ -4201,7 +4216,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="44">
         <v>33</v>
       </c>
@@ -4210,7 +4225,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="44">
         <v>34</v>
       </c>
@@ -4219,7 +4234,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="44">
         <v>35</v>
       </c>
@@ -4228,7 +4243,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="44">
         <v>36</v>
       </c>
@@ -4237,7 +4252,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="44">
         <v>37</v>
       </c>
@@ -4246,7 +4261,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="44">
         <v>38</v>
       </c>
@@ -4255,7 +4270,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="44">
         <v>39</v>
       </c>
@@ -4264,7 +4279,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="44">
         <v>40</v>
       </c>
@@ -4273,7 +4288,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="44">
         <v>41</v>
       </c>
@@ -4282,7 +4297,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="44">
         <v>42</v>
       </c>
@@ -4291,7 +4306,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="44">
         <v>43</v>
       </c>
@@ -4300,7 +4315,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="44">
         <v>44</v>
       </c>
@@ -4309,7 +4324,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="44">
         <v>45</v>
       </c>
@@ -4318,7 +4333,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="44">
         <v>46</v>
       </c>
@@ -4327,7 +4342,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="44">
         <v>47</v>
       </c>
@@ -4336,7 +4351,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="44">
         <v>48</v>
       </c>
@@ -4345,7 +4360,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="44">
         <v>49</v>
       </c>
@@ -4354,7 +4369,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="44">
         <v>50</v>
       </c>
@@ -4363,7 +4378,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="44">
         <v>51</v>
       </c>
@@ -4372,7 +4387,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="44">
         <v>52</v>
       </c>
@@ -4381,7 +4396,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="44">
         <v>53</v>
       </c>
@@ -4390,7 +4405,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="44">
         <v>54</v>
       </c>
@@ -4399,7 +4414,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="44">
         <v>55</v>
       </c>
@@ -4408,7 +4423,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="44">
         <v>56</v>
       </c>
@@ -4417,7 +4432,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="44">
         <v>57</v>
       </c>
@@ -4426,7 +4441,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="44">
         <v>58</v>
       </c>
@@ -4435,7 +4450,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="44">
         <v>59</v>
       </c>
@@ -4444,7 +4459,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="44">
         <v>60</v>
       </c>
@@ -4453,7 +4468,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/JOBCON/DOGELIO, JEAN MELODY MARANAN.xlsx
+++ b/JOBCON/DOGELIO, JEAN MELODY MARANAN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\JOBCON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\JOBCON\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>PERIOD</t>
   </si>
@@ -192,6 +192,21 @@
   </si>
   <si>
     <t>2/1,2/2023</t>
+  </si>
+  <si>
+    <t>CTO</t>
+  </si>
+  <si>
+    <t>SL(7-0-0)</t>
+  </si>
+  <si>
+    <t>2/20-28/2023</t>
+  </si>
+  <si>
+    <t>SL(13-0-0)</t>
+  </si>
+  <si>
+    <t>3/1-3,6-10,13-17/2023</t>
   </si>
 </sst>
 </file>
@@ -570,6 +585,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -602,9 +620,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1215,7 +1230,7 @@
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,62 +1252,64 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="50"/>
+      <c r="C2" s="51"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="55"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="54"/>
+      <c r="K3" s="55"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="50"/>
+      <c r="C4" s="51"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1318,18 +1335,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1468,7 +1485,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="60" t="s">
+      <c r="A13" s="49" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="20"/>
@@ -1510,8 +1527,12 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="38"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="39">
+        <v>44998</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="C15" s="13"/>
       <c r="D15" s="37"/>
       <c r="E15" s="9"/>
@@ -1522,12 +1543,20 @@
       </c>
       <c r="H15" s="37"/>
       <c r="I15" s="9"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="20"/>
+      <c r="J15" s="11">
+        <v>7</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="15"/>
+      <c r="A16" s="39">
+        <v>44998</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>56</v>
+      </c>
       <c r="C16" s="40"/>
       <c r="D16" s="41"/>
       <c r="E16" s="9"/>
@@ -1538,8 +1567,12 @@
       </c>
       <c r="H16" s="41"/>
       <c r="I16" s="9"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="15"/>
+      <c r="J16" s="12">
+        <v>13</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="38"/>
@@ -3426,17 +3459,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -3511,12 +3544,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="47"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="44">

--- a/JOBCON/DOGELIO, JEAN MELODY MARANAN.xlsx
+++ b/JOBCON/DOGELIO, JEAN MELODY MARANAN.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>PERIOD</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>3/1-3,6-10,13-17/2023</t>
+  </si>
+  <si>
+    <t>5/15,16/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1230,7 +1236,7 @@
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,8 +1581,12 @@
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="38">
+        <v>45063</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C17" s="13"/>
       <c r="D17" s="37"/>
       <c r="E17" s="9"/>
@@ -1587,11 +1597,17 @@
       </c>
       <c r="H17" s="37"/>
       <c r="I17" s="9"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="20"/>
+      <c r="J17" s="11">
+        <v>2</v>
+      </c>
+      <c r="K17" s="20" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
+      <c r="A18" s="38" t="s">
+        <v>59</v>
+      </c>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
       <c r="D18" s="37"/>

--- a/JOBCON/DOGELIO, JEAN MELODY MARANAN.xlsx
+++ b/JOBCON/DOGELIO, JEAN MELODY MARANAN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\JOBCON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\JOBCON\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F752C2-E727-4008-B118-9AFEA6ACCE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
   <si>
     <t>PERIOD</t>
   </si>
@@ -212,13 +213,13 @@
     <t>5/15,16/2023</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>6/23, 30/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -887,7 +888,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -904,25 +905,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1229,32 +1230,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1277,7 +1278,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1295,7 +1296,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1317,7 +1318,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1325,7 +1326,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1338,7 +1339,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1355,7 +1356,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1390,7 +1391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1414,7 +1415,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="38">
         <v>44743</v>
       </c>
@@ -1442,7 +1443,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="38">
         <v>44817</v>
       </c>
@@ -1466,7 +1467,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="38">
         <v>44893</v>
       </c>
@@ -1490,7 +1491,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="49" t="s">
         <v>50</v>
       </c>
@@ -1508,7 +1509,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="38">
         <v>44958</v>
       </c>
@@ -1532,7 +1533,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="39">
         <v>44998</v>
       </c>
@@ -1556,7 +1557,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="39">
         <v>44998</v>
       </c>
@@ -1580,7 +1581,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="38">
         <v>45063</v>
       </c>
@@ -1604,11 +1605,13 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="20"/>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="38">
+        <v>45110</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C18" s="13"/>
       <c r="D18" s="37"/>
       <c r="E18" s="9"/>
@@ -1619,10 +1622,14 @@
       </c>
       <c r="H18" s="37"/>
       <c r="I18" s="9"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J18" s="11">
+        <v>2</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="38"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -1638,7 +1645,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="38"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -1654,7 +1661,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="38"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -1670,7 +1677,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="38"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -1686,7 +1693,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="38"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -1702,7 +1709,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="38"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -1718,7 +1725,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="38"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -1734,7 +1741,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="38"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -1750,7 +1757,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="38"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -1766,7 +1773,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="38"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -1782,7 +1789,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="38"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -1798,7 +1805,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="38"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -1814,7 +1821,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="38"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -1830,7 +1837,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="38"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -1846,7 +1853,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="38"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -1862,7 +1869,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="38"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -1878,7 +1885,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="38"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -1894,7 +1901,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="38"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -1910,7 +1917,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="38"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -1926,7 +1933,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="38"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -1942,7 +1949,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="38"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -1958,7 +1965,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="38"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -1974,7 +1981,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="38"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -1990,7 +1997,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="38"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -2006,7 +2013,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="38"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -2022,7 +2029,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="38"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -2038,7 +2045,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="38"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -2054,7 +2061,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="38"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -2070,7 +2077,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="38"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -2086,7 +2093,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="38"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -2102,7 +2109,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="38"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -2118,7 +2125,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="38"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -2134,7 +2141,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="38"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -2150,7 +2157,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="38"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -2166,7 +2173,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="38"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -2182,7 +2189,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="38"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -2198,7 +2205,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="38"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -2214,7 +2221,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="38"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -2230,7 +2237,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="38"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -2246,7 +2253,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="38"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -2262,7 +2269,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="38"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -2278,7 +2285,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="38"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -2294,7 +2301,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="38"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -2310,7 +2317,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="38"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -2326,7 +2333,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="38"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -2342,7 +2349,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="38"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -2358,7 +2365,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="38"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -2374,7 +2381,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="38"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -2390,7 +2397,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="38"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -2406,7 +2413,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="38"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -2422,7 +2429,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="38"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -2438,7 +2445,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="38"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -2454,7 +2461,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="38"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -2470,7 +2477,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="38"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -2486,7 +2493,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="38"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -2502,7 +2509,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="38"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -2518,7 +2525,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="38"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -2534,7 +2541,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="38"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -2550,7 +2557,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="38"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -2566,7 +2573,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="38"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -2582,7 +2589,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="38"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -2598,7 +2605,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="38"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -2614,7 +2621,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="38"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -2630,7 +2637,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="38"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -2646,7 +2653,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="38"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -2662,7 +2669,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="38"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -2678,7 +2685,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="38"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -2694,7 +2701,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="38"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -2710,7 +2717,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="38"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -2726,7 +2733,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="38"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -2742,7 +2749,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="38"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -2758,7 +2765,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="38"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -2774,7 +2781,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="38"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -2790,7 +2797,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="38"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -2806,7 +2813,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="38"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -2822,7 +2829,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="38"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -2838,7 +2845,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="38"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -2854,7 +2861,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="38"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -2870,7 +2877,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="38"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -2886,7 +2893,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="38"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -2902,7 +2909,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="38"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -2918,7 +2925,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="38"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -2934,7 +2941,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="38"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -2950,7 +2957,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="38"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -2966,7 +2973,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="38"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -2982,7 +2989,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="38"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -2998,7 +3005,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="38"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3014,7 +3021,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="38"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3030,7 +3037,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="38"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3046,7 +3053,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="38"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3062,7 +3069,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="38"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3078,7 +3085,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="38"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3094,7 +3101,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="38"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3110,7 +3117,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="38"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3126,7 +3133,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="38"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3142,7 +3149,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="38"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3158,7 +3165,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="38"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3174,7 +3181,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="38"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3190,7 +3197,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="38"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3206,7 +3213,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="38"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3222,7 +3229,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="38"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3238,7 +3245,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="38"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3254,7 +3261,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="38"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3270,7 +3277,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="38"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3286,7 +3293,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="38"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3302,7 +3309,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="38"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3318,7 +3325,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="38"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3334,7 +3341,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="38"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3350,7 +3357,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="38"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3366,7 +3373,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="38"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3382,7 +3389,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="38"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3398,7 +3405,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="39"/>
       <c r="B130" s="15"/>
       <c r="C130" s="40"/>
@@ -3429,10 +3436,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CONTRACTUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3453,28 +3460,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="44" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="44" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -3487,7 +3494,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3516,7 +3523,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -3536,17 +3543,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="45" t="s">
         <v>28</v>
       </c>
@@ -3567,7 +3574,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="44">
         <v>1</v>
       </c>
@@ -3594,7 +3601,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="44">
         <v>2</v>
       </c>
@@ -3620,7 +3627,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="44">
         <v>3</v>
       </c>
@@ -3646,7 +3653,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="44">
         <v>4</v>
       </c>
@@ -3672,7 +3679,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="44">
         <v>5</v>
       </c>
@@ -3698,7 +3705,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="44">
         <v>6</v>
       </c>
@@ -3724,7 +3731,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="44">
         <v>7</v>
       </c>
@@ -3750,7 +3757,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="44">
         <v>8</v>
       </c>
@@ -3776,7 +3783,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="44">
         <v>9</v>
       </c>
@@ -3796,7 +3803,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="44">
         <v>10</v>
       </c>
@@ -3816,7 +3823,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="44">
         <v>11</v>
       </c>
@@ -3836,7 +3843,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="44">
         <v>12</v>
       </c>
@@ -3857,7 +3864,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="44">
         <v>13</v>
       </c>
@@ -3878,7 +3885,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="44">
         <v>14</v>
       </c>
@@ -3899,7 +3906,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="44">
         <v>15</v>
       </c>
@@ -3920,7 +3927,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="44">
         <v>16</v>
       </c>
@@ -3941,7 +3948,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="44">
         <v>17</v>
       </c>
@@ -3962,7 +3969,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="44">
         <v>18</v>
       </c>
@@ -3983,7 +3990,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="44">
         <v>19</v>
       </c>
@@ -4004,7 +4011,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="44">
         <v>20</v>
       </c>
@@ -4025,7 +4032,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="44">
         <v>21</v>
       </c>
@@ -4046,7 +4053,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="44">
         <v>22</v>
       </c>
@@ -4067,7 +4074,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="44">
         <v>23</v>
       </c>
@@ -4088,7 +4095,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="44">
         <v>24</v>
       </c>
@@ -4109,7 +4116,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="44">
         <v>25</v>
       </c>
@@ -4130,7 +4137,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="44">
         <v>26</v>
       </c>
@@ -4151,7 +4158,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="44">
         <v>27</v>
       </c>
@@ -4172,7 +4179,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="44">
         <v>28</v>
       </c>
@@ -4193,7 +4200,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="44">
         <v>29</v>
       </c>
@@ -4214,7 +4221,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="44">
         <v>30</v>
       </c>
@@ -4235,7 +4242,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="44">
         <v>31</v>
       </c>
@@ -4256,7 +4263,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="44">
         <v>32</v>
       </c>
@@ -4265,7 +4272,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="44">
         <v>33</v>
       </c>
@@ -4274,7 +4281,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="44">
         <v>34</v>
       </c>
@@ -4283,7 +4290,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="44">
         <v>35</v>
       </c>
@@ -4292,7 +4299,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="44">
         <v>36</v>
       </c>
@@ -4301,7 +4308,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="44">
         <v>37</v>
       </c>
@@ -4310,7 +4317,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="44">
         <v>38</v>
       </c>
@@ -4319,7 +4326,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="44">
         <v>39</v>
       </c>
@@ -4328,7 +4335,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="44">
         <v>40</v>
       </c>
@@ -4337,7 +4344,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="44">
         <v>41</v>
       </c>
@@ -4346,7 +4353,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="44">
         <v>42</v>
       </c>
@@ -4355,7 +4362,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="44">
         <v>43</v>
       </c>
@@ -4364,7 +4371,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="44">
         <v>44</v>
       </c>
@@ -4373,7 +4380,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="44">
         <v>45</v>
       </c>
@@ -4382,7 +4389,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="44">
         <v>46</v>
       </c>
@@ -4391,7 +4398,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="44">
         <v>47</v>
       </c>
@@ -4400,7 +4407,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="44">
         <v>48</v>
       </c>
@@ -4409,7 +4416,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="44">
         <v>49</v>
       </c>
@@ -4418,7 +4425,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="44">
         <v>50</v>
       </c>
@@ -4427,7 +4434,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="44">
         <v>51</v>
       </c>
@@ -4436,7 +4443,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="44">
         <v>52</v>
       </c>
@@ -4445,7 +4452,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="44">
         <v>53</v>
       </c>
@@ -4454,7 +4461,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="44">
         <v>54</v>
       </c>
@@ -4463,7 +4470,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="44">
         <v>55</v>
       </c>
@@ -4472,7 +4479,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="44">
         <v>56</v>
       </c>
@@ -4481,7 +4488,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="44">
         <v>57</v>
       </c>
@@ -4490,7 +4497,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="44">
         <v>58</v>
       </c>
@@ -4499,7 +4506,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="44">
         <v>59</v>
       </c>
@@ -4508,7 +4515,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="44">
         <v>60</v>
       </c>
@@ -4517,7 +4524,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/JOBCON/DOGELIO, JEAN MELODY MARANAN.xlsx
+++ b/JOBCON/DOGELIO, JEAN MELODY MARANAN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\JOBCON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\JOBCON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F752C2-E727-4008-B118-9AFEA6ACCE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>PERIOD</t>
   </si>
@@ -214,12 +213,15 @@
   </si>
   <si>
     <t>6/23, 30/2023</t>
+  </si>
+  <si>
+    <t>SL(1-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -888,7 +890,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -905,25 +907,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K130" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1230,32 +1232,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1278,7 +1280,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1296,7 +1298,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1318,7 +1320,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1326,7 +1328,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1339,7 +1341,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -1356,7 +1358,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +1393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1415,7 +1417,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="38">
         <v>44743</v>
       </c>
@@ -1443,7 +1445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="38">
         <v>44817</v>
       </c>
@@ -1467,7 +1469,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="38">
         <v>44893</v>
       </c>
@@ -1491,7 +1493,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="49" t="s">
         <v>50</v>
       </c>
@@ -1509,7 +1511,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
         <v>44958</v>
       </c>
@@ -1533,7 +1535,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="39">
         <v>44998</v>
       </c>
@@ -1557,7 +1559,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="39">
         <v>44998</v>
       </c>
@@ -1581,7 +1583,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <v>45063</v>
       </c>
@@ -1605,7 +1607,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="38">
         <v>45110</v>
       </c>
@@ -1629,9 +1631,11 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
-      <c r="B19" s="20"/>
+      <c r="B19" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C19" s="13"/>
       <c r="D19" s="37"/>
       <c r="E19" s="9"/>
@@ -1642,12 +1646,20 @@
       </c>
       <c r="H19" s="37"/>
       <c r="I19" s="9"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="38"/>
-      <c r="B20" s="20"/>
+      <c r="J19" s="11">
+        <v>1</v>
+      </c>
+      <c r="K19" s="48">
+        <v>45135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
+        <v>45139</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C20" s="13"/>
       <c r="D20" s="37"/>
       <c r="E20" s="9"/>
@@ -1658,10 +1670,14 @@
       </c>
       <c r="H20" s="37"/>
       <c r="I20" s="9"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J20" s="11">
+        <v>1</v>
+      </c>
+      <c r="K20" s="48">
+        <v>45140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -1677,7 +1693,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -1693,7 +1709,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -1709,7 +1725,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -1725,7 +1741,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="38"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -1741,7 +1757,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="38"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -1757,7 +1773,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="38"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -1773,7 +1789,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="38"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -1789,7 +1805,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="38"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -1805,7 +1821,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="38"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -1821,7 +1837,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="38"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -1837,7 +1853,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -1853,7 +1869,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="38"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -1869,7 +1885,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="38"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -1885,7 +1901,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="38"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -1901,7 +1917,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="38"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -1917,7 +1933,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="38"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -1933,7 +1949,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="38"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -1949,7 +1965,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="38"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -1965,7 +1981,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="38"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -1981,7 +1997,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="38"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -1997,7 +2013,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="38"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -2013,7 +2029,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="38"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -2029,7 +2045,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="38"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -2045,7 +2061,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="38"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -2061,7 +2077,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="38"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -2077,7 +2093,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="38"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -2093,7 +2109,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="38"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -2109,7 +2125,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="38"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -2125,7 +2141,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="38"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -2141,7 +2157,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="38"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -2157,7 +2173,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="38"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -2173,7 +2189,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="38"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -2189,7 +2205,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="38"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -2205,7 +2221,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="38"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -2221,7 +2237,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="38"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -2237,7 +2253,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="38"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -2253,7 +2269,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="38"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -2269,7 +2285,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="38"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -2285,7 +2301,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="38"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -2301,7 +2317,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="38"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -2317,7 +2333,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="38"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -2333,7 +2349,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="38"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -2349,7 +2365,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="38"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -2365,7 +2381,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="38"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -2381,7 +2397,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="38"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -2397,7 +2413,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="38"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -2413,7 +2429,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="38"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -2429,7 +2445,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="38"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -2445,7 +2461,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="38"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -2461,7 +2477,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="38"/>
       <c r="B71" s="20"/>
       <c r="C71" s="13"/>
@@ -2477,7 +2493,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="38"/>
       <c r="B72" s="20"/>
       <c r="C72" s="13"/>
@@ -2493,7 +2509,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="38"/>
       <c r="B73" s="20"/>
       <c r="C73" s="13"/>
@@ -2509,7 +2525,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="38"/>
       <c r="B74" s="20"/>
       <c r="C74" s="13"/>
@@ -2525,7 +2541,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="38"/>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
@@ -2541,7 +2557,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="38"/>
       <c r="B76" s="20"/>
       <c r="C76" s="13"/>
@@ -2557,7 +2573,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="38"/>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
@@ -2573,7 +2589,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="38"/>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
@@ -2589,7 +2605,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="38"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -2605,7 +2621,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="38"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -2621,7 +2637,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="38"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -2637,7 +2653,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="38"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -2653,7 +2669,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="38"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -2669,7 +2685,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="38"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -2685,7 +2701,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="38"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -2701,7 +2717,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="38"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -2717,7 +2733,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="38"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -2733,7 +2749,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="38"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -2749,7 +2765,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="38"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -2765,7 +2781,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="38"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -2781,7 +2797,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="38"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -2797,7 +2813,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="38"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -2813,7 +2829,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="38"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -2829,7 +2845,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="38"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -2845,7 +2861,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="38"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -2861,7 +2877,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="38"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -2877,7 +2893,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="38"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -2893,7 +2909,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="38"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -2909,7 +2925,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="38"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -2925,7 +2941,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="38"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -2941,7 +2957,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="38"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -2957,7 +2973,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="38"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -2973,7 +2989,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="38"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -2989,7 +3005,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="38"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3005,7 +3021,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="38"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3021,7 +3037,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="38"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3037,7 +3053,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="38"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3053,7 +3069,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="38"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3069,7 +3085,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="38"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3085,7 +3101,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="38"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3101,7 +3117,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="38"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3117,7 +3133,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="38"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3133,7 +3149,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="38"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3149,7 +3165,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="38"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3165,7 +3181,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="38"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3181,7 +3197,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="38"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3197,7 +3213,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="38"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3213,7 +3229,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="38"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3229,7 +3245,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="38"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3245,7 +3261,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="38"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3261,7 +3277,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="38"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3277,7 +3293,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="38"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3293,7 +3309,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="38"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3309,7 +3325,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="38"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3325,7 +3341,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="38"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3341,7 +3357,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="38"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3357,7 +3373,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="38"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3373,7 +3389,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="38"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3389,7 +3405,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="38"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -3405,7 +3421,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="39"/>
       <c r="B130" s="15"/>
       <c r="C130" s="40"/>
@@ -3436,10 +3452,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CONTRACTUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3460,28 +3476,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="44" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="44" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -3494,7 +3510,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -3523,7 +3539,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -3543,17 +3559,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="14.4" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="45" t="s">
         <v>28</v>
       </c>
@@ -3574,7 +3590,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="44">
         <v>1</v>
       </c>
@@ -3601,7 +3617,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="44">
         <v>2</v>
       </c>
@@ -3627,7 +3643,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="44">
         <v>3</v>
       </c>
@@ -3653,7 +3669,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="44">
         <v>4</v>
       </c>
@@ -3679,7 +3695,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="44">
         <v>5</v>
       </c>
@@ -3705,7 +3721,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="44">
         <v>6</v>
       </c>
@@ -3731,7 +3747,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="44">
         <v>7</v>
       </c>
@@ -3757,7 +3773,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="44">
         <v>8</v>
       </c>
@@ -3783,7 +3799,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="44">
         <v>9</v>
       </c>
@@ -3803,7 +3819,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="44">
         <v>10</v>
       </c>
@@ -3823,7 +3839,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="44">
         <v>11</v>
       </c>
@@ -3843,7 +3859,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="44">
         <v>12</v>
       </c>
@@ -3864,7 +3880,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="44">
         <v>13</v>
       </c>
@@ -3885,7 +3901,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="44">
         <v>14</v>
       </c>
@@ -3906,7 +3922,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="44">
         <v>15</v>
       </c>
@@ -3927,7 +3943,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="44">
         <v>16</v>
       </c>
@@ -3948,7 +3964,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="44">
         <v>17</v>
       </c>
@@ -3969,7 +3985,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="44">
         <v>18</v>
       </c>
@@ -3990,7 +4006,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="44">
         <v>19</v>
       </c>
@@ -4011,7 +4027,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="44">
         <v>20</v>
       </c>
@@ -4032,7 +4048,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="44">
         <v>21</v>
       </c>
@@ -4053,7 +4069,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="44">
         <v>22</v>
       </c>
@@ -4074,7 +4090,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="44">
         <v>23</v>
       </c>
@@ -4095,7 +4111,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="44">
         <v>24</v>
       </c>
@@ -4116,7 +4132,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="44">
         <v>25</v>
       </c>
@@ -4137,7 +4153,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="44">
         <v>26</v>
       </c>
@@ -4158,7 +4174,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="44">
         <v>27</v>
       </c>
@@ -4179,7 +4195,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="44">
         <v>28</v>
       </c>
@@ -4200,7 +4216,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="44">
         <v>29</v>
       </c>
@@ -4221,7 +4237,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="44">
         <v>30</v>
       </c>
@@ -4242,7 +4258,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="44">
         <v>31</v>
       </c>
@@ -4263,7 +4279,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="44">
         <v>32</v>
       </c>
@@ -4272,7 +4288,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="44">
         <v>33</v>
       </c>
@@ -4281,7 +4297,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="44">
         <v>34</v>
       </c>
@@ -4290,7 +4306,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="44">
         <v>35</v>
       </c>
@@ -4299,7 +4315,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="44">
         <v>36</v>
       </c>
@@ -4308,7 +4324,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="44">
         <v>37</v>
       </c>
@@ -4317,7 +4333,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="44">
         <v>38</v>
       </c>
@@ -4326,7 +4342,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="44">
         <v>39</v>
       </c>
@@ -4335,7 +4351,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="44">
         <v>40</v>
       </c>
@@ -4344,7 +4360,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="44">
         <v>41</v>
       </c>
@@ -4353,7 +4369,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="44">
         <v>42</v>
       </c>
@@ -4362,7 +4378,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="44">
         <v>43</v>
       </c>
@@ -4371,7 +4387,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="44">
         <v>44</v>
       </c>
@@ -4380,7 +4396,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="44">
         <v>45</v>
       </c>
@@ -4389,7 +4405,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="44">
         <v>46</v>
       </c>
@@ -4398,7 +4414,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="44">
         <v>47</v>
       </c>
@@ -4407,7 +4423,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="44">
         <v>48</v>
       </c>
@@ -4416,7 +4432,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="44">
         <v>49</v>
       </c>
@@ -4425,7 +4441,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="44">
         <v>50</v>
       </c>
@@ -4434,7 +4450,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="44">
         <v>51</v>
       </c>
@@ -4443,7 +4459,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="44">
         <v>52</v>
       </c>
@@ -4452,7 +4468,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="44">
         <v>53</v>
       </c>
@@ -4461,7 +4477,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="44">
         <v>54</v>
       </c>
@@ -4470,7 +4486,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="44">
         <v>55</v>
       </c>
@@ -4479,7 +4495,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="44">
         <v>56</v>
       </c>
@@ -4488,7 +4504,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="44">
         <v>57</v>
       </c>
@@ -4497,7 +4513,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="44">
         <v>58</v>
       </c>
@@ -4506,7 +4522,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="44">
         <v>59</v>
       </c>
@@ -4515,7 +4531,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="44">
         <v>60</v>
       </c>
@@ -4524,7 +4540,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/JOBCON/DOGELIO, JEAN MELODY MARANAN.xlsx
+++ b/JOBCON/DOGELIO, JEAN MELODY MARANAN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\JOBCON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\JOBCON\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
   <si>
     <t>PERIOD</t>
   </si>
@@ -216,6 +216,12 @@
   </si>
   <si>
     <t>SL(1-0-0)</t>
+  </si>
+  <si>
+    <t>VL(14-0-0)</t>
+  </si>
+  <si>
+    <t>8/14-31/2023</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1245,7 @@
   <dimension ref="A2:K130"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1679,11 +1685,15 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
-      <c r="B21" s="20"/>
+      <c r="B21" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="C21" s="13"/>
       <c r="D21" s="37"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="20"/>
+      <c r="F21" s="20">
+        <v>14</v>
+      </c>
       <c r="G21" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
@@ -1691,7 +1701,9 @@
       <c r="H21" s="37"/>
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="20"/>
+      <c r="K21" s="20" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
